--- a/results/Datasets_infos.xlsx
+++ b/results/Datasets_infos.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Thyroid</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Glass</t>
   </si>
@@ -46,6 +43,18 @@
   </si>
   <si>
     <t>dim</t>
+  </si>
+  <si>
+    <t>Breast</t>
+  </si>
+  <si>
+    <t>Madelon</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Ann Thyroid</t>
   </si>
 </sst>
 </file>
@@ -384,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,21 +406,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>3772</v>
@@ -420,73 +429,53 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D3" si="0">C2-1</f>
+        <f>C2-1</f>
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>214</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>351</v>
-      </c>
-      <c r="C4">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <f>C4-1</f>
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>6737</v>
+        <v>214</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D7" si="1">C5-1</f>
-        <v>16</v>
+        <f>C5-1</f>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>2013</v>
+        <v>351</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f>C6-1</f>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>148</v>
@@ -495,11 +484,49 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f>C7-1</f>
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>6737</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <f>C9-1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2013</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <f>C10-1</f>
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:D10">
+    <sortCondition ref="A2:A10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/results/Datasets_infos.xlsx
+++ b/results/Datasets_infos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Glass</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Ann Thyroid</t>
+  </si>
+  <si>
+    <t>noch nicht mit GMD durchgelaufen</t>
   </si>
 </sst>
 </file>
@@ -393,18 +396,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -418,7 +422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -433,17 +437,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>393</v>
+      </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="0">C3-1</f>
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>768</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -454,11 +481,11 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <f>C5-1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -469,11 +496,11 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <f>C6-1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -484,16 +511,29 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <f>C7-1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>330</v>
+      </c>
+      <c r="C8">
+        <v>501</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -504,11 +544,11 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <f>C9-1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -519,7 +559,7 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <f>C10-1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>

--- a/results/Datasets_infos.xlsx
+++ b/results/Datasets_infos.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Glass</t>
   </si>
@@ -399,11 +397,12 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -529,9 +528,6 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -569,28 +565,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>